--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="119">
   <si>
     <t>Hora</t>
   </si>
@@ -378,924 +378,6 @@
   <si>
     <t>9/11/2016 23:08</t>
   </si>
-  <si>
-    <t>9/11/2016 21:12</t>
-  </si>
-  <si>
-    <t>FABIANE CAZULO JUCHEN</t>
-  </si>
-  <si>
-    <t>The user with id '119416' has viewed the discussion with id '147424' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>201.21.62.33</t>
-  </si>
-  <si>
-    <t>The user with id '119416' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '119416' has created the discussion with id '147424' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '119416' has posted content in the forum post with id '1250016' in the discussion '147424' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 21:09</t>
-  </si>
-  <si>
-    <t>9/11/2016 20:43</t>
-  </si>
-  <si>
-    <t>CALVIN CHAVES ZACCANI</t>
-  </si>
-  <si>
-    <t>The user with id '131349' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>201.11.213.228</t>
-  </si>
-  <si>
-    <t>The user with id '131349' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 18:10</t>
-  </si>
-  <si>
-    <t>143.54.11.59</t>
-  </si>
-  <si>
-    <t>9/11/2016 18:03</t>
-  </si>
-  <si>
-    <t>9/11/2016 17:56</t>
-  </si>
-  <si>
-    <t>JULIA DAL BOSCO</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '147395' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>177.18.119.173</t>
-  </si>
-  <si>
-    <t>The user with id '111490' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 17:46</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 17:38</t>
-  </si>
-  <si>
-    <t>ANA KELLY CATTELAN</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>143.54.152.172</t>
-  </si>
-  <si>
-    <t>9/11/2016 17:37</t>
-  </si>
-  <si>
-    <t>The user with id '81131' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 16:45</t>
-  </si>
-  <si>
-    <t>9/11/2016 16:44</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147395' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>Post atualizado</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has updated the post with id '1249898' in the discussion with id '147395' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1249898' in the discussion '147395' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 16:43</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1249898' in the discussion with id '147395' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 16:32</t>
-  </si>
-  <si>
-    <t>9/11/2016 16:31</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147388' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1249894' in the discussion with id '147388' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1249894' in the discussion '147388' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 16:26</t>
-  </si>
-  <si>
-    <t>9/11/2016 14:37</t>
-  </si>
-  <si>
-    <t>HELLEN MONTEIRO PEREIRA</t>
-  </si>
-  <si>
-    <t>The user with id '128457' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>143.54.44.217</t>
-  </si>
-  <si>
-    <t>The user with id '128457' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '128457' has created the discussion with id '147395' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '128457' has posted content in the forum post with id '1249848' in the discussion '147395' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 14:27</t>
-  </si>
-  <si>
-    <t>9/11/2016 13:17</t>
-  </si>
-  <si>
-    <t>BRENDA BORGES XAVIER</t>
-  </si>
-  <si>
-    <t>The user with id '103282' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>143.54.5.96</t>
-  </si>
-  <si>
-    <t>9/11/2016 12:28</t>
-  </si>
-  <si>
-    <t>143.54.5.81</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has created the discussion with id '147388' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has posted content in the forum post with id '1249818' in the discussion '147388' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 12:24</t>
-  </si>
-  <si>
-    <t>9/11/2016 11:54</t>
-  </si>
-  <si>
-    <t>9/11/2016 11:32</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>9/11/2016 11:31</t>
-  </si>
-  <si>
-    <t>9/11/2016 10:06</t>
-  </si>
-  <si>
-    <t>189.63.164.247</t>
-  </si>
-  <si>
-    <t>9/11/2016 00:42</t>
-  </si>
-  <si>
-    <t>ANDY RUIZ GARRAMONES</t>
-  </si>
-  <si>
-    <t>The user with id '127836' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>179.219.171.254</t>
-  </si>
-  <si>
-    <t>8/11/2016 22:41</t>
-  </si>
-  <si>
-    <t>The user with id '118387' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>2804:14c:a989:1748:8941:a51b:4ab5:7115</t>
-  </si>
-  <si>
-    <t>8/11/2016 19:35</t>
-  </si>
-  <si>
-    <t>8/11/2016 18:50</t>
-  </si>
-  <si>
-    <t>BRUNO SCHNEIDER LONGHI</t>
-  </si>
-  <si>
-    <t>The user with id '131350' has viewed the discussion with id '146941' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>177.79.0.249</t>
-  </si>
-  <si>
-    <t>The user with id '131350' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 18:49</t>
-  </si>
-  <si>
-    <t>The user with id '131350' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 18:10</t>
-  </si>
-  <si>
-    <t>JAMILE GUARDA</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>201.37.163.75</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has viewed the discussion with id '147277' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 18:09</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has viewed the discussion with id '146886' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '112339' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 17:01</t>
-  </si>
-  <si>
-    <t>The user with id '87296' has viewed the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 17:00</t>
-  </si>
-  <si>
-    <t>The user with id '87296' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:38</t>
-  </si>
-  <si>
-    <t>OMAR OVIDIO MOROZI SILVEIRA NETO</t>
-  </si>
-  <si>
-    <t>The user with id '70192' has viewed the discussion with id '147005' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>201.37.160.39</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:36</t>
-  </si>
-  <si>
-    <t>The user with id '70192' has viewed the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '70192' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:16</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:15</t>
-  </si>
-  <si>
-    <t>177.203.190.209</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:14</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has viewed the discussion with id '146886' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:13</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has created the post with id '1249509' in the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has posted content in the forum post with id '1249509' in the discussion '147259' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:11</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has created the post with id '1249508' in the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has posted content in the forum post with id '1249508' in the discussion '147259' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:10</t>
-  </si>
-  <si>
-    <t>8/11/2016 16:09</t>
-  </si>
-  <si>
-    <t>8/11/2016 15:58</t>
-  </si>
-  <si>
-    <t>143.54.6.8</t>
-  </si>
-  <si>
-    <t>8/11/2016 14:51</t>
-  </si>
-  <si>
-    <t>8/11/2016 12:49</t>
-  </si>
-  <si>
-    <t>GABRIEL RODUIT DE SOUZA</t>
-  </si>
-  <si>
-    <t>The user with id '111770' has viewed the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>201.37.160.57</t>
-  </si>
-  <si>
-    <t>8/11/2016 12:48</t>
-  </si>
-  <si>
-    <t>The user with id '111770' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '111770' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 12:34</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>143.54.6.13</t>
-  </si>
-  <si>
-    <t>8/11/2016 11:14</t>
-  </si>
-  <si>
-    <t>GUSTAVO LUCAS HOHER</t>
-  </si>
-  <si>
-    <t>The user with id '94876' has viewed the discussion with id '141744' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>143.54.215.11</t>
-  </si>
-  <si>
-    <t>The user with id '94876' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '94876' has viewed the discussion with id '144583' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 11:13</t>
-  </si>
-  <si>
-    <t>The user with id '94876' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 09:42</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '144784' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>143.54.6.9</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '146492' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 09:41</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '147223' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '147201' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '111490' has viewed the discussion with id '147277' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>8/11/2016 09:40</t>
-  </si>
-  <si>
-    <t>8/11/2016 08:35</t>
-  </si>
-  <si>
-    <t>8/11/2016 01:28</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>187.107.59.86</t>
-  </si>
-  <si>
-    <t>7/11/2016 23:40</t>
-  </si>
-  <si>
-    <t>7/11/2016 23:34</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:23</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:22</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has viewed the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:21</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has viewed the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:20</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:19</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:14</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:07</t>
-  </si>
-  <si>
-    <t>7/11/2016 22:06</t>
-  </si>
-  <si>
-    <t>7/11/2016 20:15</t>
-  </si>
-  <si>
-    <t>VINICIUS GRAZZIOLI MOSCON</t>
-  </si>
-  <si>
-    <t>The user with id '111507' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>187.113.233.50</t>
-  </si>
-  <si>
-    <t>7/11/2016 18:26</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has created the post with id '1248934' in the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has posted content in the forum post with id '1248934' in the discussion '147234' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 18:21</t>
-  </si>
-  <si>
-    <t>7/11/2016 16:50</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147277' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 16:49</t>
-  </si>
-  <si>
-    <t>7/11/2016 16:27</t>
-  </si>
-  <si>
-    <t>VITOR SCHREIBER NUNES</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147277' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>2804:7f4:f880:e04b:b9c9:968:aeed:1bfb</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has created the post with id '1248848' in the discussion with id '147277' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has posted content in the forum post with id '1248848' in the discussion '147277' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 16:25</t>
-  </si>
-  <si>
-    <t>The user with id '110124' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 16:05</t>
-  </si>
-  <si>
-    <t>191.220.74.4</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has created the discussion with id '147277' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has posted content in the forum post with id '1248840' in the discussion '147277' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 16:02</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '146886' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147223' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147207' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 16:01</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147209' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '147201' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '110124' has viewed the discussion with id '146879' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 15:59</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has viewed the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 15:58</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has viewed the discussion with id '146956' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 15:57</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has viewed the discussion with id '146528' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 15:56</t>
-  </si>
-  <si>
-    <t>7/11/2016 15:51</t>
-  </si>
-  <si>
-    <t>7/11/2016 15:48</t>
-  </si>
-  <si>
-    <t>7/11/2016 15:45</t>
-  </si>
-  <si>
-    <t>7/11/2016 14:02</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1248749' in the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1248749' in the discussion '147259' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 14:00</t>
-  </si>
-  <si>
-    <t>7/11/2016 13:58</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1248748' in the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1248748' in the discussion '147259' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 13:47</t>
-  </si>
-  <si>
-    <t>7/11/2016 13:46</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1248743' in the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1248743' in the discussion '147257' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 13:45</t>
-  </si>
-  <si>
-    <t>FELIPE DE ALMEIDA GRAEFF</t>
-  </si>
-  <si>
-    <t>The user with id '127042' viewed the 'forum' activity with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>143.54.6.37</t>
-  </si>
-  <si>
-    <t>7/11/2016 13:42</t>
-  </si>
-  <si>
-    <t>7/11/2016 13:41</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147207' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 13:36</t>
-  </si>
-  <si>
-    <t>7/11/2016 12:40</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has created the discussion with id '147259' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has posted content in the forum post with id '1248707' in the discussion '147259' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 12:37</t>
-  </si>
-  <si>
-    <t>7/11/2016 12:36</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has created the post with id '1248706' in the discussion with id '146886' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has posted content in the forum post with id '1248706' in the discussion '146886' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 12:20</t>
-  </si>
-  <si>
-    <t>191.32.34.138</t>
-  </si>
-  <si>
-    <t>The user with id '111833' has created the discussion with id '147257' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '111833' has posted content in the forum post with id '1248693' in the discussion '147257' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 12:19</t>
-  </si>
-  <si>
-    <t>7/11/2016 12:02</t>
-  </si>
-  <si>
-    <t>7/11/2016 11:59</t>
-  </si>
-  <si>
-    <t>7/11/2016 11:02</t>
-  </si>
-  <si>
-    <t>7/11/2016 11:01</t>
-  </si>
-  <si>
-    <t>The user with id '121460' has viewed the discussion with id '146666' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:43</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:34</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1248539' in the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1248539' in the discussion '147235' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:33</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:32</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:30</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1248538' in the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1248538' in the discussion '147234' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:10</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has viewed the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has updated the post with id '1248537' in the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has posted content in the forum post with id '1248537' in the discussion '147208' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:07</t>
-  </si>
-  <si>
-    <t>The user with id '4688' has created the post with id '1248537' in the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:05</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has created the discussion with id '147235' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has posted content in the forum post with id '1248536' in the discussion '147235' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 02:02</t>
-  </si>
-  <si>
-    <t>7/11/2016 01:37</t>
-  </si>
-  <si>
-    <t>7/11/2016 01:35</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has created the discussion with id '147234' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has posted content in the forum post with id '1248534' in the discussion '147234' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 01:31</t>
-  </si>
-  <si>
-    <t>The user with id '103282' has viewed the discussion with id '147223' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>7/11/2016 00:57</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:52</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:47</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146537' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>186.219.129.5</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:46</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146568' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146663' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146661' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146643' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146764' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146886' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '147005' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:29</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:26</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '146879' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '147201' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '147209' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '147207' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:25</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '81131' has viewed the discussion with id '147223' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:16</t>
-  </si>
-  <si>
-    <t>Post excluído</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has deleted the post with id '1248473' in the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:15</t>
-  </si>
-  <si>
-    <t>6/11/2016 23:01</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has created the post with id '1248473' in the discussion with id '147208' in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has posted content in the forum post with id '1248473' in the discussion '147208' located in the forum with course module id '1014105'.</t>
-  </si>
-  <si>
-    <t>6/11/2016 22:55</t>
-  </si>
-  <si>
-    <t>6/11/2016 22:50</t>
-  </si>
-  <si>
-    <t>6/11/2016 22:49</t>
-  </si>
-  <si>
-    <t>6/11/2016 22:43</t>
-  </si>
-  <si>
-    <t>The user with id '112339' has viewed the discussion with id '147223' in the forum with course module id '1014105'.</t>
-  </si>
 </sst>
 </file>
 
@@ -1416,15 +498,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A315" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3544" activeCellId="0" sqref="A341:K3544"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K342" activeCellId="0" sqref="A67:K342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7952 +2423,280 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I181" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I219" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I220" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I221" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I222" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I229" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I230" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I231" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I232" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I238" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I241" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I242" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I243" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I244" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I245" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I246" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I247" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I248" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H249" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I249" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H250" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I250" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H251" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H252" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I252" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H253" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I253" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H254" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I254" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H255" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I255" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H256" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I256" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H257" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I257" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I258" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H259" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I259" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H260" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I260" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H261" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I261" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H262" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H263" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H264" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H265" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I265" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H266" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I266" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H267" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I267" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H268" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I268" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H269" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I269" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H270" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I271" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H272" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I272" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H273" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I273" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H274" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I274" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H275" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H276" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I276" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H277" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I277" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H278" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I278" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H279" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I279" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I280" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H281" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I281" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H282" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I282" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I283" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H284" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I284" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H285" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I285" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H286" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H287" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H288" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I288" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H289" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I289" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H290" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I290" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H291" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G292" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H292" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I292" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G293" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H293" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I293" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H294" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H295" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I295" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I297" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I298" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H299" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I299" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H300" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H301" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I301" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I302" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H303" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I303" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H304" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I304" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H305" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H306" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H307" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I307" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H308" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I308" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H309" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I309" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I310" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H311" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I311" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I312" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H313" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I313" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H315" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I315" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H316" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I316" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H317" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H318" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I318" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H319" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I319" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H320" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I320" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G321" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H321" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I321" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F322" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H322" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I322" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H323" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H324" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I324" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H325" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I325" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H326" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I326" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F327" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G327" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H327" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I327" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G328" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H328" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I328" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H329" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H330" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I330" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H331" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I331" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H332" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I333" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I334" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H335" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I335" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H336" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I336" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I337" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I338" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F339" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H339" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I339" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H340" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I340" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
